--- a/5. 테스트 시나리오/테스트 시나리오_테스트 결과 - 통합 완료.xlsx
+++ b/5. 테스트 시나리오/테스트 시나리오_테스트 결과 - 통합 완료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="30" windowWidth="14880" windowHeight="12285"/>
+    <workbookView xWindow="13875" yWindow="30" windowWidth="14880" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="메인화면" sheetId="1" r:id="rId1"/>
@@ -268,25 +268,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 기본 정보, 스토리, 리워드, 리스크 항목을 모두 작성한 경우 등록 신청 버튼이 활성화 되고, 프로젝트 등록 신청 클릭시 프로젝트 신청이 완료 되고, 등록된 정보는 수정할 수 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 기본 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 스토리 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 웹에디터를 이용하여 프로젝트 스토리 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 추가하기 버튼으로 리워드 등록 모달창 호출하여 리워드 등록
-2. 다수의 리워드 옵션 추가 가능
-3. 리워드옵션 수정 및 삭제 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1495,26 +1481,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1. 기본요건만 동의한 상황에서도 프로젝트 등록 신청 버튼이 활성화 되어 있음
-1-2. 기본정보 작성 후 등록 버튼 클릭시, 400에러 발생
-1-3. 스토리 작성 후 등록 버튼 클릭시, 400에러 발생
-1-4-1. 리워드 옵션 추가 팝업에서 발송시작 예정일 날짜 선택 안됨 
-1-4-2. 작성 후 등록 버튼 클릭시 400에러 발생
-1-4-3. 팝업을 닫고 저장버튼 클릭시엔 프로젝트 준비 페이지로 이동됨
-1-4-4. 발송시작 예정일을 수기로 작성하고 등록 → 프로젝트 준비 페이지에 리워드작성 상태가 '작성완료'로 변경되지 않음. 
-1-5. 위험요인 및 정책 페이지 등록은 정상작동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제하고 나면 세션 지우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 준비 &gt; 프로젝트 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 프로젝트 제목 입력, 목표 금액 입력, 대표 이미지 등록, 카테고리 설정, 프로젝트 시작 및 종료 예정일 입력, 프로젝트 키워드 입력 후 저장하면 DB에 정보 저장 후 프로젝트 준비 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1530,16 +1501,6 @@
   </si>
   <si>
     <t>1. 400 에러 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 리워드 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 발송시작 예정일을 수기로 등록하면 리워드 등록 됨
-2. 정상작동
-3. 수정 및 삭제 불가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2314,28 +2275,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1. 리워드,리스크 항목 작성전에도
-등록신청버튼 활성화
-1-2. 각 항목 미작성시에도 등록성공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1. 기본정보 작성 후 준비페이지로 이동은
-되나 계속해서 작성전 상태로 남아있고
-작성하기버튼이 활성화됨
-1-2. 다시 작성하기 버튼 클릭하면
-새로 내용을 입력하는 상황이 반복됨
-기존 작성한 정보를 불러오지 못함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>400에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 옵션명 xx자남음 상태로 지속됨
-2. 정상
-3. 수정 및 삭제 불가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2419,29 +2359,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 각 항목 작성 유무 체크가 정상적으로 되지 않아 등록 신청 버튼이 계속 활성화 되어 있음
-- 수정 완료
-2. 각 항목 입력 시 입력을 하지 않거나, 정해진 형식과 다른 데이터 타입의 데이터가 입력 되는 경우 400 에러 발생
-- 화면 단계에서 데이터 타입과 NULL CHK 할 수 있도록 수정 완료
-3. DATEPICKER 정상적으로 작동하지 않아 날짜 선택 불가
-- 수정 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 각 항목 입력 시 입력을 하지 않거나, 정해진 형식과 다른 데이터 타입의 데이터가 입력 되는 경우 400 에러 발생
 - 화면 단계에서 데이터 타입과 NULL CHK 할 수 있도록 수정 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 각 항목 입력 시 입력을 하지 않거나, 정해진 형식과 다른 데이터 타입의 데이터가 입력 되는 경우 400 에러 발생
-- 화면 단계에서 데이터 타입과 NULL CHK 할 수 있도록 수정 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 각 항목 입력 시 입력을 하지 않거나, 정해진 형식과 다른 데이터 타입의 데이터가 입력 되는 경우 400 에러 발생
-- 화면 단계에서 데이터 타입과 NULL CHK 할 수 있도록 수정 완료
-2. DATEPICKER가 정상적으로 작동하지 않는 오류
-- 수정 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2630,6 +2549,86 @@
   </si>
   <si>
     <t>정상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 리워드,리스크 항목 작성전에도
+등록신청버튼 활성화
+1-2. 각 항목 미작성시에도 등록성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 기본요건만 동의한 상황에서도 프로젝트 등록 신청 버튼이 활성화 되어 있음
+1-2. 기본정보 작성 후 등록 버튼 클릭시, 400에러 발생
+1-3. 스토리 작성 후 등록 버튼 클릭시, 400에러 발생
+1-4-1. 리워드 옵션 추가 팝업에서 발송시작 예정일 날짜 선택 안됨 
+1-4-2. 작성 후 등록 버튼 클릭시 400에러 발생
+1-4-3. 팝업을 닫고 저장버튼 클릭시엔 프로젝트 준비 페이지로 이동됨
+1-4-4. 발송시작 예정일을 수기로 작성하고 등록 → 프로젝트 준비 페이지에 리워드작성 상태가 '작성완료'로 변경되지 않음. 
+1-5. 위험요인 및 정책 페이지 등록은 정상작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기본 정보, 스토리, 리워드, 리스크 항목을 모두 작성한 경우 등록 신청 버튼이 활성화 되고, 프로젝트 등록 신청 클릭시 프로젝트 신청이 완료 되고, 등록된 정보는 수정할 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 각 항목 작성 유무 체크가 정상적으로 되지 않아 등록 신청 버튼이 계속 활성화 되어 있음
+- 수정 완료
+2. 각 항목 입력 시 입력을 하지 않거나, 정해진 형식과 다른 데이터 타입의 데이터가 입력 되는 경우 400 에러 발생
+- 화면 단계에서 데이터 타입과 NULL CHK 할 수 있도록 수정 완료
+3. DATEPICKER 정상적으로 작동하지 않아 날짜 선택 불가
+- 수정 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기본 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 제목 입력, 목표 금액 입력, 대표 이미지 등록, 카테고리 설정, 프로젝트 시작 및 종료 예정일 입력, 프로젝트 키워드 입력 후 저장하면 DB에 정보 저장 후 프로젝트 준비 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 기본정보 작성 후 준비페이지로 이동은되나 계속해서 작성전 상태로 남아있고
+작성하기버튼이 활성화됨
+1-2. 다시 작성하기 버튼 클릭하면
+새로 내용을 입력하는 상황이 반복됨
+기존 작성한 정보를 불러오지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 각 항목 입력 시 입력을 하지 않거나, 정해진 형식과 다른 데이터 타입의 데이터가 입력 되는 경우 400 에러 발생
+- 화면 단계에서 데이터 타입과 NULL CHK 할 수 있도록 수정 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 리워드 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 추가하기 버튼으로 리워드 등록 모달창 호출하여 리워드 등록
+2. 다수의 리워드 옵션 추가 가능
+3. 리워드옵션 수정 및 삭제 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 옵션명 xx자남음 상태로 지속됨
+2. 정상
+3. 수정 및 삭제 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 발송시작 예정일을 수기로 등록하면 리워드 등록 됨
+2. 정상작동
+3. 수정 및 삭제 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 각 항목 입력 시 입력을 하지 않거나, 정해진 형식과 다른 데이터 타입의 데이터가 입력 되는 경우 400 에러 발생
+- 화면 단계에서 데이터 타입과 NULL CHK 할 수 있도록 수정 완료
+2. DATEPICKER가 정상적으로 작동하지 않는 오류
+- 수정 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2880,9 +2879,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2895,13 +2891,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3211,7 +3210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -3226,14 +3225,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
@@ -3258,7 +3257,7 @@
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -3284,16 +3283,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="103.5" customHeight="1">
@@ -3307,10 +3306,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="22"/>
@@ -3326,16 +3325,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="164.25" customHeight="1">
@@ -3349,10 +3348,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="22"/>
@@ -3368,10 +3367,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="22"/>
@@ -3387,10 +3386,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="22"/>
@@ -3403,19 +3402,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="F12" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="153.75" customHeight="1">
@@ -3429,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="22"/>
@@ -3448,10 +3447,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="22"/>
@@ -3467,10 +3466,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="22"/>
@@ -3486,14 +3485,14 @@
         <v>17</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="21" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="206.25" customHeight="1">
@@ -3507,10 +3506,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="22"/>
@@ -3526,14 +3525,14 @@
         <v>19</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="21" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="111" customHeight="1">
@@ -3547,10 +3546,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="22"/>
@@ -3563,13 +3562,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="22"/>
@@ -3585,10 +3584,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="22"/>
@@ -3604,10 +3603,10 @@
         <v>33</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="22"/>
@@ -3623,14 +3622,14 @@
         <v>35</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="126" customHeight="1">
@@ -3644,10 +3643,10 @@
         <v>37</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="22"/>
@@ -3663,10 +3662,10 @@
         <v>39</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="22"/>
@@ -5252,39 +5251,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -5307,375 +5306,375 @@
         <v>2</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A7" s="24">
         <v>2001</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A8" s="24">
         <v>2002</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" s="34" customFormat="1" ht="99">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="99">
       <c r="A9" s="24">
         <v>2003</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A10" s="24">
         <v>2004</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A11" s="24">
         <v>2005</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A12" s="24">
         <v>2006</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" ht="75.75" customHeight="1">
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A13" s="24">
         <v>2007</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" ht="75.75" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A14" s="24">
         <v>2008</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A15" s="24">
         <v>2009</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A16" s="24">
         <v>2010</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" ht="82.5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="82.5">
       <c r="A17" s="24">
         <v>2011</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="34" customFormat="1" ht="33">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A18" s="24">
         <v>2012</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A19" s="24">
         <v>2013</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A20" s="24">
         <v>2014</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A21" s="24">
         <v>2015</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" ht="82.5">
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="82.5">
       <c r="A22" s="24">
         <v>2016</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A23" s="24">
         <v>2017</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A24" s="24">
         <v>2018</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="21" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5689,7 +5688,7 @@
     <row r="26" spans="1:7">
       <c r="B26" s="16"/>
       <c r="C26" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D26" s="16">
         <v>1234</v>
@@ -5704,7 +5703,7 @@
         <v>1004</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -5713,7 +5712,7 @@
     <row r="28" spans="1:7">
       <c r="B28" s="16"/>
       <c r="C28" s="26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -5723,7 +5722,7 @@
     <row r="29" spans="1:7">
       <c r="B29" s="16"/>
       <c r="C29" s="26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -7202,7 +7201,7 @@
   <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7217,39 +7216,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -7272,246 +7271,246 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="34" customFormat="1" ht="164.25" customHeight="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="164.25" customHeight="1">
       <c r="A7" s="23">
         <v>3001</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="21" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A8" s="23">
         <v>3002</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A9" s="23">
         <v>3003</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="249.75" customHeight="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="249.75" customHeight="1">
       <c r="A10" s="23">
         <v>3004</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="34" customFormat="1" ht="84" customHeight="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="84" customHeight="1">
       <c r="A11" s="23">
         <v>3005</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" s="34" customFormat="1" ht="132.75" customHeight="1">
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="132.75" customHeight="1">
       <c r="A12" s="23">
         <v>3006</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" ht="154.5" customHeight="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="154.5" customHeight="1">
       <c r="A13" s="23">
         <v>3007</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A14" s="23">
         <v>3008</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A15" s="23">
         <v>3009</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="21" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A16" s="23">
         <v>3010</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" ht="120.75" customHeight="1">
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="120.75" customHeight="1">
       <c r="A17" s="23">
         <v>3011</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="21" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9048,8 +9047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9063,39 +9062,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -9110,95 +9109,95 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="34" customFormat="1" ht="103.5" customHeight="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="23">
         <v>4000</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>298</v>
-      </c>
       <c r="G7" s="32" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="34" customFormat="1" ht="51.75" customHeight="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="51.75" customHeight="1">
       <c r="A8" s="23">
         <v>4001</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" s="34" customFormat="1" ht="25.5" customHeight="1">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="23">
         <v>4002</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>305</v>
-      </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="25.5" customHeight="1">
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="28"/>
@@ -9207,7 +9206,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" s="34" customFormat="1">
+    <row r="11" spans="1:7" s="33" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -9216,17 +9215,17 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:7" s="34" customFormat="1">
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -9235,72 +9234,72 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="34" customFormat="1" ht="63" customHeight="1">
+      <c r="D14" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="63" customHeight="1">
       <c r="A15" s="24">
         <v>4100</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" ht="63" customHeight="1">
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="63" customHeight="1">
       <c r="A16" s="24">
         <v>4101</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" ht="338.25" customHeight="1">
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="338.25" customHeight="1">
       <c r="A17" s="24">
         <v>4102</v>
       </c>
@@ -9308,482 +9307,482 @@
         <v>48</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>49</v>
+        <v>522</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>315</v>
+        <v>521</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="34" customFormat="1" ht="62.25" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="62.25" customHeight="1">
       <c r="A18" s="24">
         <v>4103</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="34" customFormat="1" ht="79.5" customHeight="1">
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="99">
       <c r="A19" s="24">
         <v>4104</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>50</v>
+        <v>524</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>318</v>
+        <v>525</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="34" customFormat="1" ht="25.5" customHeight="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="82.5">
       <c r="A20" s="24">
         <v>4105</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="34" customFormat="1" ht="78.75" customHeight="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="132">
       <c r="A21" s="24">
         <v>4106</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>322</v>
+        <v>528</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>53</v>
+        <v>529</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>323</v>
+        <v>531</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" ht="85.5" customHeight="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="85.5" customHeight="1">
       <c r="A22" s="24">
         <v>4107</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="34" customFormat="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" s="34" customFormat="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="1:7" s="34" customFormat="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A27" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" s="35" t="s">
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="35" t="s">
+      <c r="C27" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="34" customFormat="1" ht="82.5">
+      <c r="G27" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="82.5">
       <c r="A28" s="24">
         <v>4200</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A29" s="24">
         <v>4201</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="24">
         <v>4202</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="31" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A31" s="24">
         <v>4203</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="32" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A32" s="24">
         <v>4204</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="33" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A33" s="24">
         <v>4205</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" s="34" customFormat="1" ht="114.75" customHeight="1">
+    <row r="34" spans="1:7" s="33" customFormat="1" ht="114.75" customHeight="1">
       <c r="A34" s="24">
         <v>4206</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="24">
         <v>4207</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="36" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A36" s="24">
         <v>4208</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="38"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" s="34" customFormat="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-    </row>
-    <row r="40" spans="1:7" s="34" customFormat="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A41" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="B41" s="35" t="s">
+    <row r="38" spans="1:7" s="33" customFormat="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" spans="1:7" s="33" customFormat="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
+      <c r="A41" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="F41" s="35" t="s">
+      <c r="D41" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="34" customFormat="1" ht="80.25" customHeight="1">
+      <c r="G41" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="33" customFormat="1" ht="80.25" customHeight="1">
       <c r="A42" s="24">
         <v>4300</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="43" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A43" s="24">
         <v>4301</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="34" customFormat="1" ht="115.5" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="33" customFormat="1" ht="115.5" customHeight="1">
       <c r="A44" s="24">
         <v>4302</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -11168,39 +11167,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -11217,25 +11216,25 @@
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>206</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>209</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="129" customHeight="1">
@@ -11243,19 +11242,19 @@
         <v>5000</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G7" s="21"/>
     </row>
@@ -11264,16 +11263,16 @@
         <v>5001</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -11283,16 +11282,16 @@
         <v>5002</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -11302,16 +11301,16 @@
         <v>5003</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -11321,19 +11320,19 @@
         <v>5004</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G11" s="21"/>
     </row>
@@ -11342,16 +11341,16 @@
         <v>5005</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -11361,16 +11360,16 @@
         <v>5006</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
@@ -11380,19 +11379,19 @@
         <v>5007</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G14" s="21"/>
     </row>
@@ -11401,20 +11400,20 @@
         <v>5008</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="21" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="100.5" customHeight="1">
@@ -11422,22 +11421,22 @@
         <v>5009</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="92.25" customHeight="1">
@@ -11445,20 +11444,20 @@
         <v>5010</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="78.75" customHeight="1">
@@ -11466,20 +11465,20 @@
         <v>5011</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.75" customHeight="1">
@@ -11487,19 +11486,19 @@
         <v>5012</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" s="21"/>
     </row>
@@ -11508,19 +11507,19 @@
         <v>5013</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -11529,16 +11528,16 @@
         <v>5014</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="24"/>
@@ -11548,16 +11547,16 @@
         <v>5015</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
@@ -11567,16 +11566,16 @@
         <v>5016</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
@@ -11586,16 +11585,16 @@
         <v>5017</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
@@ -11605,18 +11604,18 @@
         <v>5018</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13196,19 +13195,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="13" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>41</v>
@@ -13217,18 +13216,18 @@
         <v>42</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -13245,25 +13244,25 @@
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1">
@@ -13271,16 +13270,16 @@
         <v>6000</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -13290,16 +13289,16 @@
         <v>6001</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -13309,16 +13308,16 @@
         <v>6002</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -13328,16 +13327,16 @@
         <v>6003</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -13347,16 +13346,16 @@
         <v>6004</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -13366,16 +13365,16 @@
         <v>6005</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -13385,16 +13384,16 @@
         <v>6006</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -13404,16 +13403,16 @@
         <v>6007</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -13423,22 +13422,22 @@
         <v>6008</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="66">
@@ -13446,19 +13445,19 @@
         <v>6009</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G16" s="21"/>
     </row>
@@ -13467,20 +13466,20 @@
         <v>6010</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.5">
@@ -13488,20 +13487,20 @@
         <v>6011</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="66">
@@ -13509,22 +13508,22 @@
         <v>6100</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="23.25" customHeight="1">
@@ -13532,19 +13531,19 @@
         <v>6101</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -13553,19 +13552,19 @@
         <v>6102</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G21" s="21"/>
     </row>
@@ -13574,19 +13573,19 @@
         <v>6103</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G22" s="21"/>
     </row>
@@ -13595,22 +13594,22 @@
         <v>6104</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1">
@@ -13618,19 +13617,19 @@
         <v>6105</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G24" s="21"/>
     </row>
@@ -13639,22 +13638,22 @@
         <v>6106</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.25" customHeight="1">
@@ -13662,19 +13661,19 @@
         <v>6107</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G26" s="21"/>
     </row>
@@ -13683,19 +13682,19 @@
         <v>6108</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G27" s="21"/>
     </row>
@@ -13704,19 +13703,19 @@
         <v>6109</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G28" s="21"/>
     </row>
@@ -13725,19 +13724,19 @@
         <v>6110</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G29" s="21"/>
     </row>
@@ -13746,19 +13745,19 @@
         <v>6111</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G30" s="21"/>
     </row>
@@ -13767,19 +13766,19 @@
         <v>6112</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G31" s="21"/>
     </row>
@@ -13788,22 +13787,22 @@
         <v>6113</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
@@ -13811,19 +13810,19 @@
         <v>6114</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G33" s="21"/>
     </row>
@@ -13832,22 +13831,22 @@
         <v>6115</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -13855,19 +13854,19 @@
         <v>6116</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G35" s="21"/>
     </row>
@@ -13876,19 +13875,19 @@
         <v>6117</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G36" s="21"/>
     </row>
@@ -13897,19 +13896,19 @@
         <v>6118</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G37" s="21"/>
     </row>
@@ -13918,19 +13917,19 @@
         <v>6119</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G38" s="21"/>
     </row>
@@ -13939,19 +13938,19 @@
         <v>6120</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G39" s="21"/>
     </row>
@@ -13960,22 +13959,22 @@
         <v>6121</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
@@ -13983,19 +13982,19 @@
         <v>6122</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" s="21"/>
     </row>
@@ -14004,19 +14003,19 @@
         <v>6123</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G42" s="21"/>
     </row>
@@ -14025,19 +14024,19 @@
         <v>6124</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G43" s="21"/>
     </row>
@@ -14046,19 +14045,19 @@
         <v>6125</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G44" s="21"/>
     </row>
@@ -14067,19 +14066,19 @@
         <v>6126</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G45" s="21"/>
     </row>
@@ -14088,19 +14087,19 @@
         <v>6127</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G46" s="21"/>
     </row>
@@ -14109,19 +14108,19 @@
         <v>6128</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G47" s="21"/>
     </row>
@@ -14130,19 +14129,19 @@
         <v>6129</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G48" s="21"/>
     </row>
@@ -14151,19 +14150,19 @@
         <v>6130</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G49" s="21"/>
     </row>
@@ -14172,19 +14171,19 @@
         <v>6131</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G50" s="21"/>
     </row>
@@ -14193,22 +14192,22 @@
         <v>6132</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="23.25" customHeight="1">
@@ -14216,19 +14215,19 @@
         <v>6133</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G52" s="21"/>
     </row>

--- a/5. 테스트 시나리오/테스트 시나리오_테스트 결과 - 통합 완료.xlsx
+++ b/5. 테스트 시나리오/테스트 시나리오_테스트 결과 - 통합 완료.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="30" windowWidth="14880" windowHeight="12285"/>
+    <workbookView xWindow="13875" yWindow="30" windowWidth="14880" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="메인화면" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="531">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,19 +655,6 @@
     <t>* 메이커 회원 : 메이커 스튜디오를 통해 메이커로 등록된 회원, 
                      펀딩 모금을 할 수 있는 회원
 * 서포터 회원 : 메이커가 아닌 모든 회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 주소 API 사용 필요(20/06/01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 휴대폰 번호 인증 미구현(2020/06/01)
-* 수정 버튼 클릭시 반응 없는 문제 해결 필요(2020/06/01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 미구현(2020/06/01)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1025,10 +1012,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 주소 API 사용 필요(20/06/01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 주문 취소 버튼 클릭시 주문 취소를 다시 확인 하는 창이 표시
 2. 펀딩 취소 완료시 우측 상단의 주문 상태가 '주문 취소'로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1081,11 +1064,6 @@
     <t>1. 잘됨
 2. 잘됨
 3. 잘됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 충전/출금 신청시 바로 충전/출금되면 정상
-* int 값을 초과하는 숫자 입력시 에러 발생하는 문제 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2555,19 +2533,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 수정중 (2020/06/03)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 수정 버튼 클릭시 반응 없는 문제 해결 완료 (2020/06/03)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>* 수정 완료(2020/06/03)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 구현중 (2020/06/03)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2630,6 +2600,27 @@
   </si>
   <si>
     <t>정상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 구현완료 (2020/06/04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 충전/출금 신청시 바로 충전/출금되면 정상
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 구현 완료(2020/06/03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*미구현(2020/06/02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 수정완료 (2020/06/03)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2880,9 +2871,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2895,13 +2883,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3211,7 +3202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -3226,14 +3217,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
@@ -3258,7 +3249,7 @@
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -3293,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="103.5" customHeight="1">
@@ -3307,10 +3298,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="22"/>
@@ -3326,16 +3317,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="164.25" customHeight="1">
@@ -3349,10 +3340,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="22"/>
@@ -3368,10 +3359,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="22"/>
@@ -3387,10 +3378,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="22"/>
@@ -3403,19 +3394,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>115</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="153.75" customHeight="1">
@@ -3429,10 +3420,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="22"/>
@@ -3448,10 +3439,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="22"/>
@@ -3467,10 +3458,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="22"/>
@@ -3486,14 +3477,14 @@
         <v>17</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="21" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="206.25" customHeight="1">
@@ -3507,10 +3498,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="22"/>
@@ -3526,14 +3517,14 @@
         <v>19</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="21" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="111" customHeight="1">
@@ -3547,10 +3538,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="22"/>
@@ -3563,13 +3554,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="22"/>
@@ -3585,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="22"/>
@@ -3604,10 +3595,10 @@
         <v>33</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="22"/>
@@ -3623,14 +3614,14 @@
         <v>35</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="126" customHeight="1">
@@ -3644,10 +3635,10 @@
         <v>37</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="22"/>
@@ -3663,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="22"/>
@@ -5252,28 +5243,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5284,7 +5275,7 @@
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -5307,43 +5298,43 @@
         <v>2</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A7" s="24">
         <v>2001</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A8" s="24">
         <v>2002</v>
       </c>
@@ -5351,313 +5342,313 @@
         <v>110</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" s="34" customFormat="1" ht="99">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="99">
       <c r="A9" s="24">
         <v>2003</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A10" s="24">
         <v>2004</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A11" s="24">
         <v>2005</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A12" s="24">
         <v>2006</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" ht="75.75" customHeight="1">
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A13" s="24">
         <v>2007</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" ht="75.75" customHeight="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A14" s="24">
         <v>2008</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A15" s="24">
         <v>2009</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A16" s="24">
         <v>2010</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" ht="82.5">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="82.5">
       <c r="A17" s="24">
         <v>2011</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="34" customFormat="1" ht="33">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A18" s="24">
         <v>2012</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A19" s="24">
         <v>2013</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A20" s="24">
         <v>2014</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A21" s="24">
         <v>2015</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" ht="82.5">
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="82.5">
       <c r="A22" s="24">
         <v>2016</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" ht="49.5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A23" s="24">
         <v>2017</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" ht="49.5">
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="49.5">
       <c r="A24" s="24">
         <v>2018</v>
       </c>
@@ -5665,17 +5656,17 @@
         <v>113</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="21" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5689,7 +5680,7 @@
     <row r="26" spans="1:7">
       <c r="B26" s="16"/>
       <c r="C26" s="26" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D26" s="16">
         <v>1234</v>
@@ -5704,7 +5695,7 @@
         <v>1004</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -5713,7 +5704,7 @@
     <row r="28" spans="1:7">
       <c r="B28" s="16"/>
       <c r="C28" s="26" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -5723,7 +5714,7 @@
     <row r="29" spans="1:7">
       <c r="B29" s="16"/>
       <c r="C29" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -7217,39 +7208,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -7272,7 +7263,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>116</v>
@@ -7284,94 +7275,94 @@
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="34" customFormat="1" ht="164.25" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="164.25" customHeight="1">
       <c r="A7" s="23">
         <v>3001</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="21" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A8" s="23">
         <v>3002</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A9" s="23">
         <v>3003</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="249.75" customHeight="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="249.75" customHeight="1">
       <c r="A10" s="23">
         <v>3004</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="34" customFormat="1" ht="84" customHeight="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="84" customHeight="1">
       <c r="A11" s="23">
         <v>3005</v>
       </c>
@@ -7379,39 +7370,39 @@
         <v>106</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" s="34" customFormat="1" ht="132.75" customHeight="1">
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="132.75" customHeight="1">
       <c r="A12" s="23">
         <v>3006</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" ht="154.5" customHeight="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="154.5" customHeight="1">
       <c r="A13" s="23">
         <v>3007</v>
       </c>
@@ -7419,99 +7410,99 @@
         <v>107</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A14" s="23">
         <v>3008</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A15" s="23">
         <v>3009</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="21" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A16" s="23">
         <v>3010</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" ht="120.75" customHeight="1">
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="120.75" customHeight="1">
       <c r="A17" s="23">
         <v>3011</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="21" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9063,39 +9054,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -9110,15 +9101,15 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>116</v>
@@ -9130,75 +9121,75 @@
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="34" customFormat="1" ht="103.5" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="23">
         <v>4000</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="34" customFormat="1" ht="51.75" customHeight="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="51.75" customHeight="1">
       <c r="A8" s="23">
         <v>4001</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" s="34" customFormat="1" ht="25.5" customHeight="1">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="23">
         <v>4002</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="25.5" customHeight="1">
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="28"/>
@@ -9207,7 +9198,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" s="34" customFormat="1">
+    <row r="11" spans="1:7" s="33" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -9216,17 +9207,17 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:7" s="34" customFormat="1">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -9235,72 +9226,72 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="34" customFormat="1" ht="63" customHeight="1">
+      <c r="D14" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="63" customHeight="1">
       <c r="A15" s="24">
         <v>4100</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" ht="63" customHeight="1">
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="63" customHeight="1">
       <c r="A16" s="24">
         <v>4101</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" ht="338.25" customHeight="1">
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="338.25" customHeight="1">
       <c r="A17" s="24">
         <v>4102</v>
       </c>
@@ -9311,38 +9302,38 @@
         <v>49</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="34" customFormat="1" ht="62.25" customHeight="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="62.25" customHeight="1">
       <c r="A18" s="24">
         <v>4103</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="34" customFormat="1" ht="79.5" customHeight="1">
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="79.5" customHeight="1">
       <c r="A19" s="24">
         <v>4104</v>
       </c>
@@ -9350,22 +9341,22 @@
         <v>50</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="34" customFormat="1" ht="25.5" customHeight="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="24">
         <v>4105</v>
       </c>
@@ -9376,122 +9367,122 @@
         <v>52</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="34" customFormat="1" ht="78.75" customHeight="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="78.75" customHeight="1">
       <c r="A21" s="24">
         <v>4106</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" ht="85.5" customHeight="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="85.5" customHeight="1">
       <c r="A22" s="24">
         <v>4107</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="34" customFormat="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" s="34" customFormat="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="38" t="s">
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="1:7" s="34" customFormat="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A27" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" s="35" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="D27" s="35" t="s">
+      <c r="C27" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="34" customFormat="1" ht="82.5">
+      <c r="G27" s="34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="82.5">
       <c r="A28" s="24">
         <v>4200</v>
       </c>
@@ -9499,37 +9490,37 @@
         <v>55</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" ht="72" customHeight="1">
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="72" customHeight="1">
       <c r="A29" s="24">
         <v>4201</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="24">
         <v>4202</v>
       </c>
@@ -9540,17 +9531,17 @@
         <v>57</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="31" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A31" s="24">
         <v>4203</v>
       </c>
@@ -9561,15 +9552,15 @@
         <v>59</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="32" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A32" s="24">
         <v>4204</v>
       </c>
@@ -9577,18 +9568,18 @@
         <v>60</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="33" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A33" s="24">
         <v>4205</v>
       </c>
@@ -9599,17 +9590,17 @@
         <v>62</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" s="34" customFormat="1" ht="114.75" customHeight="1">
+    <row r="34" spans="1:7" s="33" customFormat="1" ht="114.75" customHeight="1">
       <c r="A34" s="24">
         <v>4206</v>
       </c>
@@ -9620,15 +9611,15 @@
         <v>64</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="24">
         <v>4207</v>
       </c>
@@ -9639,97 +9630,97 @@
         <v>66</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" s="34" customFormat="1" ht="33">
+    <row r="36" spans="1:7" s="33" customFormat="1" ht="33">
       <c r="A36" s="24">
         <v>4208</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="38"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" s="34" customFormat="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-    </row>
-    <row r="40" spans="1:7" s="34" customFormat="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A41" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="B41" s="35" t="s">
+    <row r="38" spans="1:7" s="33" customFormat="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" spans="1:7" s="33" customFormat="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:7" s="33" customFormat="1" ht="24" customHeight="1">
+      <c r="A41" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="F41" s="35" t="s">
+      <c r="D41" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="34" customFormat="1" ht="80.25" customHeight="1">
+      <c r="G41" s="34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="33" customFormat="1" ht="80.25" customHeight="1">
       <c r="A42" s="24">
         <v>4300</v>
       </c>
@@ -9740,15 +9731,15 @@
         <v>70</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" s="34" customFormat="1" ht="66">
+    <row r="43" spans="1:7" s="33" customFormat="1" ht="66">
       <c r="A43" s="24">
         <v>4301</v>
       </c>
@@ -9756,34 +9747,34 @@
         <v>71</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="34" customFormat="1" ht="115.5" customHeight="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="33" customFormat="1" ht="115.5" customHeight="1">
       <c r="A44" s="24">
         <v>4302</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -11153,8 +11144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11168,39 +11159,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -11217,25 +11208,25 @@
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="129" customHeight="1">
@@ -11249,10 +11240,10 @@
         <v>119</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>143</v>
@@ -11264,16 +11255,16 @@
         <v>5001</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -11289,10 +11280,10 @@
         <v>122</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -11308,10 +11299,10 @@
         <v>124</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -11327,14 +11318,12 @@
         <v>126</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>144</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="86.25" customHeight="1">
@@ -11348,10 +11337,10 @@
         <v>128</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -11361,16 +11350,16 @@
         <v>5006</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
@@ -11386,14 +11375,12 @@
         <v>126</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>219</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="86.25" customHeight="1">
@@ -11404,17 +11391,17 @@
         <v>129</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="21" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="100.5" customHeight="1">
@@ -11428,16 +11415,14 @@
         <v>131</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F16" s="20"/>
       <c r="G16" s="21" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="92.25" customHeight="1">
@@ -11448,17 +11433,17 @@
         <v>132</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="78.75" customHeight="1">
@@ -11466,20 +11451,20 @@
         <v>5011</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="20" t="s">
-        <v>146</v>
+        <v>529</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.75" customHeight="1">
@@ -11487,19 +11472,19 @@
         <v>5012</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>133</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" s="21"/>
     </row>
@@ -11511,16 +11496,16 @@
         <v>134</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -11532,13 +11517,13 @@
         <v>135</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="24"/>
@@ -11554,10 +11539,10 @@
         <v>137</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
@@ -11567,16 +11552,16 @@
         <v>5016</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
@@ -11592,10 +11577,10 @@
         <v>140</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
@@ -11613,10 +11598,10 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="20" t="s">
-        <v>146</v>
+        <v>529</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13196,19 +13181,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:7">
       <c r="B3" s="13" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>41</v>
@@ -13217,18 +13202,18 @@
         <v>42</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C4" s="5">
         <v>43983</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F4" s="5">
         <v>43984</v>
@@ -13245,25 +13230,25 @@
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>354</v>
-      </c>
       <c r="G6" s="25" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1">
@@ -13271,16 +13256,16 @@
         <v>6000</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -13290,16 +13275,16 @@
         <v>6001</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -13309,16 +13294,16 @@
         <v>6002</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -13328,16 +13313,16 @@
         <v>6003</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -13350,13 +13335,13 @@
         <v>76</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -13366,16 +13351,16 @@
         <v>6005</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -13385,16 +13370,16 @@
         <v>6006</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -13404,16 +13389,16 @@
         <v>6007</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -13429,16 +13414,16 @@
         <v>78</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="66">
@@ -13446,19 +13431,19 @@
         <v>6009</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G16" s="21"/>
     </row>
@@ -13467,20 +13452,20 @@
         <v>6010</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.5">
@@ -13491,17 +13476,17 @@
         <v>79</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="66">
@@ -13509,22 +13494,22 @@
         <v>6100</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="23.25" customHeight="1">
@@ -13538,13 +13523,13 @@
         <v>74</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -13553,19 +13538,19 @@
         <v>6102</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G21" s="21"/>
     </row>
@@ -13577,13 +13562,13 @@
         <v>81</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>80</v>
@@ -13595,22 +13580,22 @@
         <v>6104</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1">
@@ -13618,19 +13603,19 @@
         <v>6105</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G24" s="21"/>
     </row>
@@ -13639,22 +13624,22 @@
         <v>6106</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.25" customHeight="1">
@@ -13662,19 +13647,19 @@
         <v>6107</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G26" s="21"/>
     </row>
@@ -13683,19 +13668,19 @@
         <v>6108</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G27" s="21"/>
     </row>
@@ -13710,10 +13695,10 @@
         <v>84</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>80</v>
@@ -13731,10 +13716,10 @@
         <v>74</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>80</v>
@@ -13749,16 +13734,16 @@
         <v>86</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G30" s="21"/>
     </row>
@@ -13773,13 +13758,13 @@
         <v>88</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G31" s="21"/>
     </row>
@@ -13794,16 +13779,16 @@
         <v>90</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
@@ -13817,13 +13802,13 @@
         <v>92</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G33" s="21"/>
     </row>
@@ -13838,16 +13823,16 @@
         <v>94</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33">
@@ -13861,13 +13846,13 @@
         <v>96</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G35" s="21"/>
     </row>
@@ -13882,13 +13867,13 @@
         <v>84</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G36" s="21"/>
     </row>
@@ -13903,10 +13888,10 @@
         <v>99</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>80</v>
@@ -13924,13 +13909,13 @@
         <v>74</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G38" s="21"/>
     </row>
@@ -13945,13 +13930,13 @@
         <v>75</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G39" s="21"/>
     </row>
@@ -13960,22 +13945,22 @@
         <v>6121</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
@@ -13989,10 +13974,10 @@
         <v>103</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>80</v>
@@ -14007,16 +13992,16 @@
         <v>104</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G42" s="21"/>
     </row>
@@ -14025,19 +14010,19 @@
         <v>6124</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G43" s="21"/>
     </row>
@@ -14046,16 +14031,16 @@
         <v>6125</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>80</v>
@@ -14067,16 +14052,16 @@
         <v>6126</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>80</v>
@@ -14088,19 +14073,19 @@
         <v>6127</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G46" s="21"/>
     </row>
@@ -14109,19 +14094,19 @@
         <v>6128</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G47" s="21"/>
     </row>
@@ -14130,16 +14115,16 @@
         <v>6129</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>80</v>
@@ -14151,19 +14136,19 @@
         <v>6130</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G49" s="21"/>
     </row>
@@ -14178,10 +14163,10 @@
         <v>75</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>80</v>
@@ -14193,22 +14178,22 @@
         <v>6132</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="23.25" customHeight="1">
@@ -14216,19 +14201,19 @@
         <v>6133</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G52" s="21"/>
     </row>
